--- a/Code/Results/Cases/Case_5_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.748061636797502</v>
+        <v>4.899942183749204</v>
       </c>
       <c r="C2">
-        <v>0.6933606071706038</v>
+        <v>1.424632243274459</v>
       </c>
       <c r="D2">
-        <v>0.3300083027013869</v>
+        <v>0.01362129442008353</v>
       </c>
       <c r="E2">
-        <v>0.2882898629719648</v>
+        <v>0.1011361660369872</v>
       </c>
       <c r="F2">
-        <v>6.556320324456522</v>
+        <v>3.308718861714112</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2441005432138041</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.496936907844379</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.001618388718271</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.199076332032405</v>
+        <v>4.234337664821737</v>
       </c>
       <c r="C3">
-        <v>0.5915084348627886</v>
+        <v>1.226180551589039</v>
       </c>
       <c r="D3">
-        <v>0.2898372960964224</v>
+        <v>0.01225085707895346</v>
       </c>
       <c r="E3">
-        <v>0.2464826211984104</v>
+        <v>0.08991432193256799</v>
       </c>
       <c r="F3">
-        <v>5.702303910640609</v>
+        <v>2.979889146566563</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2161654145444345</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4235388103241959</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.040783344547158</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.872337034240161</v>
+        <v>3.835246241281311</v>
       </c>
       <c r="C4">
-        <v>0.5308724977788586</v>
+        <v>1.107191951307755</v>
       </c>
       <c r="D4">
-        <v>0.2660158308662233</v>
+        <v>0.01141606972561604</v>
       </c>
       <c r="E4">
-        <v>0.221660399632583</v>
+        <v>0.08322612480091962</v>
       </c>
       <c r="F4">
-        <v>5.194853676059296</v>
+        <v>2.787033577865543</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1996145974087753</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3799191838234961</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.067021898184954</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.741364086216549</v>
+        <v>3.674680782709061</v>
       </c>
       <c r="C5">
-        <v>0.506554789146719</v>
+        <v>1.059315087098867</v>
       </c>
       <c r="D5">
-        <v>0.2564850960946501</v>
+        <v>0.01107734141905325</v>
       </c>
       <c r="E5">
-        <v>0.2117233221672237</v>
+        <v>0.08054539367314462</v>
       </c>
       <c r="F5">
-        <v>4.991640279229841</v>
+        <v>2.710455046032394</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1930025925399335</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.362446675208588</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.078226263319486</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.719736230290437</v>
+        <v>3.648134505864675</v>
       </c>
       <c r="C6">
-        <v>0.5025382284303817</v>
+        <v>1.051399206899532</v>
       </c>
       <c r="D6">
-        <v>0.2549122483016646</v>
+        <v>0.01102117787754864</v>
       </c>
       <c r="E6">
-        <v>0.2100831061247703</v>
+        <v>0.08010279933547793</v>
       </c>
       <c r="F6">
-        <v>4.958094712947684</v>
+        <v>2.69785357249512</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1919121745996577</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3595620411791032</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.080116599143352</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.870562395724107</v>
+        <v>3.833072856626586</v>
       </c>
       <c r="C7">
-        <v>0.5305430590075844</v>
+        <v>1.106543923058041</v>
       </c>
       <c r="D7">
-        <v>0.2658866240505233</v>
+        <v>0.01141149589569679</v>
       </c>
       <c r="E7">
-        <v>0.2215257060714393</v>
+        <v>0.08318979779939184</v>
       </c>
       <c r="F7">
-        <v>5.192099419093324</v>
+        <v>2.785992995331355</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1995249119535529</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3796823918985766</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.067170979804601</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.556350894422849</v>
+        <v>4.668231169316755</v>
       </c>
       <c r="C8">
-        <v>0.6577912788362426</v>
+        <v>1.355543501589977</v>
       </c>
       <c r="D8">
-        <v>0.3159593323528895</v>
+        <v>0.01314723782878957</v>
       </c>
       <c r="E8">
-        <v>0.2736761831079733</v>
+        <v>0.09722108200399049</v>
       </c>
       <c r="F8">
-        <v>6.25790625398696</v>
+        <v>3.193292786911428</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.234331779702373</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4712893532311213</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.014642805751855</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.006141678243125</v>
+        <v>6.399952171997938</v>
       </c>
       <c r="C9">
-        <v>0.9271074654218125</v>
+        <v>1.87213328373025</v>
       </c>
       <c r="D9">
-        <v>0.4227511649556277</v>
+        <v>0.01661638974412583</v>
       </c>
       <c r="E9">
-        <v>0.3845565466247294</v>
+        <v>0.1266531407956712</v>
       </c>
       <c r="F9">
-        <v>8.518572714657381</v>
+        <v>4.077433012537341</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.308328129764817</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6657170157222154</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.9310416132952213</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.175053751511768</v>
+        <v>7.758819629263144</v>
       </c>
       <c r="C10">
-        <v>1.145245099458208</v>
+        <v>2.27813644857207</v>
       </c>
       <c r="D10">
-        <v>0.5097413207096224</v>
+        <v>0.01922702097290241</v>
       </c>
       <c r="E10">
-        <v>0.4745481650393302</v>
+        <v>0.1499590010743148</v>
       </c>
       <c r="F10">
-        <v>10.34612531335125</v>
+        <v>4.801442109380559</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3677806997093285</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8233263131410382</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.884766466012934</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.741330014090579</v>
+        <v>8.403896393558966</v>
       </c>
       <c r="C11">
-        <v>1.25138451941271</v>
+        <v>2.471145590405683</v>
       </c>
       <c r="D11">
-        <v>0.5521530208988281</v>
+        <v>0.02043462875290203</v>
       </c>
       <c r="E11">
-        <v>0.5183280505171055</v>
+        <v>0.161068587122152</v>
       </c>
       <c r="F11">
-        <v>11.23240395667324</v>
+        <v>5.153164516521855</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3963721419042088</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8999720865289618</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.86792809828016</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.962070861678967</v>
+        <v>8.652874522104639</v>
       </c>
       <c r="C12">
-        <v>1.292852707627617</v>
+        <v>2.545694014368507</v>
       </c>
       <c r="D12">
-        <v>0.5687315011687417</v>
+        <v>0.02089550041407406</v>
       </c>
       <c r="E12">
-        <v>0.5354259628775182</v>
+        <v>0.1653630863552351</v>
       </c>
       <c r="F12">
-        <v>11.5779891930755</v>
+        <v>5.290207896139748</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4074667708878366</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9299029922743642</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.8622539030099006</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.914224641451142</v>
+        <v>8.599028553421419</v>
       </c>
       <c r="C13">
-        <v>1.283859695134822</v>
+        <v>2.529568965262968</v>
       </c>
       <c r="D13">
-        <v>0.5651359114740444</v>
+        <v>0.02079607146504969</v>
       </c>
       <c r="E13">
-        <v>0.5317184217527711</v>
+        <v>0.1644340336702683</v>
       </c>
       <c r="F13">
-        <v>11.50307865632357</v>
+        <v>5.260510255574673</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4050646209765176</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9234128009129279</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.8634429721228685</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.759355157452944</v>
+        <v>8.424280414330553</v>
       </c>
       <c r="C14">
-        <v>1.254768665617206</v>
+        <v>2.477247771397344</v>
       </c>
       <c r="D14">
-        <v>0.5535058228491607</v>
+        <v>0.02047246866689179</v>
       </c>
       <c r="E14">
-        <v>0.5197235517080685</v>
+        <v>0.1614200503571297</v>
       </c>
       <c r="F14">
-        <v>11.26062175006075</v>
+        <v>5.164357826214598</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3972792476840397</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9024150322354387</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.8674465862878833</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.665360111680172</v>
+        <v>8.317881796516303</v>
       </c>
       <c r="C15">
-        <v>1.237125408598416</v>
+        <v>2.445398402691751</v>
       </c>
       <c r="D15">
-        <v>0.5464532939395212</v>
+        <v>0.0202747419383158</v>
       </c>
       <c r="E15">
-        <v>0.5124477974350867</v>
+        <v>0.1595857782151455</v>
       </c>
       <c r="F15">
-        <v>11.11347939342954</v>
+        <v>5.105984589500309</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.392546836771416</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8896781047117202</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.8699935400214258</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.138847620085869</v>
+        <v>7.71727151615579</v>
       </c>
       <c r="C16">
-        <v>1.138470034040864</v>
+        <v>2.265711626549944</v>
       </c>
       <c r="D16">
-        <v>0.5070354917941415</v>
+        <v>0.0191485598627672</v>
       </c>
       <c r="E16">
-        <v>0.4717530412767772</v>
+        <v>0.1492443599972582</v>
       </c>
       <c r="F16">
-        <v>10.28947520269472</v>
+        <v>4.77895806319637</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.365946975128665</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.818432421216464</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.8859594772279706</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.825540185285774</v>
+        <v>7.35625491391886</v>
       </c>
       <c r="C17">
-        <v>1.079895135338006</v>
+        <v>2.15778210213449</v>
       </c>
       <c r="D17">
-        <v>0.483650693044666</v>
+        <v>0.01846325908742941</v>
       </c>
       <c r="E17">
-        <v>0.4475860348475322</v>
+        <v>0.1430397695446821</v>
       </c>
       <c r="F17">
-        <v>9.799355446995435</v>
+        <v>4.584483370794089</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3500544641222234</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7761161682787687</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.896895888732459</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.648486845221385</v>
+        <v>7.151083750414784</v>
       </c>
       <c r="C18">
-        <v>1.046833916667339</v>
+        <v>2.096468184244486</v>
       </c>
       <c r="D18">
-        <v>0.4704596518582775</v>
+        <v>0.01807092635067775</v>
       </c>
       <c r="E18">
-        <v>0.4339452639450698</v>
+        <v>0.139517820336426</v>
       </c>
       <c r="F18">
-        <v>9.522469892293799</v>
+        <v>4.474687477398732</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.341055879387028</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7522285035361946</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.9035759735641733</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.589045869167762</v>
+        <v>7.082018760022208</v>
       </c>
       <c r="C19">
-        <v>1.03574067636157</v>
+        <v>2.075832368912131</v>
       </c>
       <c r="D19">
-        <v>0.4660350272103244</v>
+        <v>0.01793838549818005</v>
       </c>
       <c r="E19">
-        <v>0.4293683816992626</v>
+        <v>0.1383329812449112</v>
       </c>
       <c r="F19">
-        <v>9.429528301662174</v>
+        <v>4.437848912976818</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3380323202797655</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.744212969453983</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.9059020332887968</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.85855740903645</v>
+        <v>7.394423966720922</v>
       </c>
       <c r="C20">
-        <v>1.086063578197894</v>
+        <v>2.169190530272431</v>
       </c>
       <c r="D20">
-        <v>0.486112505803959</v>
+        <v>0.01853601614554989</v>
       </c>
       <c r="E20">
-        <v>0.450131092367549</v>
+        <v>0.1436953218461561</v>
       </c>
       <c r="F20">
-        <v>9.8509968129828</v>
+        <v>4.604968013015025</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3517312134595016</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.780572824884139</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.8956907119999755</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.804660467634733</v>
+        <v>8.475473157240572</v>
       </c>
       <c r="C21">
-        <v>1.263276139850007</v>
+        <v>2.492573781514977</v>
       </c>
       <c r="D21">
-        <v>0.5569067761730935</v>
+        <v>0.02056741519049154</v>
       </c>
       <c r="E21">
-        <v>0.5232316028097301</v>
+        <v>0.1623028245646481</v>
       </c>
       <c r="F21">
-        <v>11.33154729445317</v>
+        <v>5.19248983440724</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3995583303497625</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9085561463201515</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.8662507081814539</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.460657041809782</v>
+        <v>9.209915955888732</v>
       </c>
       <c r="C22">
-        <v>1.386724670036244</v>
+        <v>2.712597062882423</v>
       </c>
       <c r="D22">
-        <v>0.6062697232827077</v>
+        <v>0.02191635308807349</v>
       </c>
       <c r="E22">
-        <v>0.5741106408287635</v>
+        <v>0.1749830818948581</v>
       </c>
       <c r="F22">
-        <v>12.35869979449211</v>
+        <v>5.599324278919255</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.432404241692268</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9976206736678535</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.8511621377302845</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.106546829739443</v>
+        <v>8.8150570984875</v>
       </c>
       <c r="C23">
-        <v>1.320023885573818</v>
+        <v>2.594271120167377</v>
       </c>
       <c r="D23">
-        <v>0.5795958987470726</v>
+        <v>0.02119417416663438</v>
       </c>
       <c r="E23">
-        <v>0.546626311042516</v>
+        <v>0.1681623066165372</v>
       </c>
       <c r="F23">
-        <v>11.80419986828423</v>
+        <v>5.379852960826526</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4147110205337725</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9495094299618643</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.8587981360449106</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.843620851659637</v>
+        <v>7.377160378686767</v>
       </c>
       <c r="C24">
-        <v>1.083272932028137</v>
+        <v>2.164030505971596</v>
       </c>
       <c r="D24">
-        <v>0.4849987394850643</v>
+        <v>0.01850311757216261</v>
       </c>
       <c r="E24">
-        <v>0.4489796912377599</v>
+        <v>0.1433988070659851</v>
       </c>
       <c r="F24">
-        <v>9.827634666272189</v>
+        <v>4.595700691368449</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3509727278128167</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.778556612296768</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.8962343566096251</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.599089164497343</v>
+        <v>5.91866671878995</v>
       </c>
       <c r="C25">
-        <v>0.8513907738917794</v>
+        <v>1.728489714190005</v>
       </c>
       <c r="D25">
-        <v>0.3926413964270381</v>
+        <v>0.01566889538979765</v>
       </c>
       <c r="E25">
-        <v>0.3533410772353847</v>
+        <v>0.1184375711600225</v>
       </c>
       <c r="F25">
-        <v>7.883029264178646</v>
+        <v>3.827007854460021</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2875467600226074</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.611015314919932</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.9512703816157</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.899942183749204</v>
+        <v>3.497677267098652</v>
       </c>
       <c r="C2">
-        <v>1.424632243274459</v>
+        <v>0.9271483980914184</v>
       </c>
       <c r="D2">
-        <v>0.01362129442008353</v>
+        <v>0.2214037763398267</v>
       </c>
       <c r="E2">
-        <v>0.1011361660369872</v>
+        <v>0.1774910958151352</v>
       </c>
       <c r="F2">
-        <v>3.308718861714112</v>
+        <v>0.6877311088439839</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2441005432138041</v>
+        <v>0.1877847294323942</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.001618388718271</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.379021465113397</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.234337664821737</v>
+        <v>3.039699094366483</v>
       </c>
       <c r="C3">
-        <v>1.226180551589039</v>
+        <v>0.8098786812284686</v>
       </c>
       <c r="D3">
-        <v>0.01225085707895346</v>
+        <v>0.1964079816920048</v>
       </c>
       <c r="E3">
-        <v>0.08991432193256799</v>
+        <v>0.1579226624580699</v>
       </c>
       <c r="F3">
-        <v>2.979889146566563</v>
+        <v>0.6485957269085745</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2161654145444345</v>
+        <v>0.1673614886359474</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.040783344547158</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.329006015575317</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.835246241281311</v>
+        <v>2.759198840628699</v>
       </c>
       <c r="C4">
-        <v>1.107191951307755</v>
+        <v>0.7379547609555743</v>
       </c>
       <c r="D4">
-        <v>0.01141606972561604</v>
+        <v>0.1811789601323284</v>
       </c>
       <c r="E4">
-        <v>0.08322612480091962</v>
+        <v>0.1460879554330425</v>
       </c>
       <c r="F4">
-        <v>2.787033577865543</v>
+        <v>0.6267260072047449</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1996145974087753</v>
+        <v>0.1551041090601544</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.067021898184954</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.304135980028889</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.674680782709061</v>
+        <v>2.645016711743665</v>
       </c>
       <c r="C5">
-        <v>1.059315087098867</v>
+        <v>0.7086538979568218</v>
       </c>
       <c r="D5">
-        <v>0.01107734141905325</v>
+        <v>0.1749994426842392</v>
       </c>
       <c r="E5">
-        <v>0.08054539367314462</v>
+        <v>0.1413063778735335</v>
       </c>
       <c r="F5">
-        <v>2.710455046032394</v>
+        <v>0.6183220280910788</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1930025925399335</v>
+        <v>0.1501739344151929</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.078226263319486</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.295377074206996</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.648134505864675</v>
+        <v>2.626062894674874</v>
       </c>
       <c r="C6">
-        <v>1.051399206899532</v>
+        <v>0.703788721000592</v>
       </c>
       <c r="D6">
-        <v>0.01102117787754864</v>
+        <v>0.1739748408305246</v>
       </c>
       <c r="E6">
-        <v>0.08010279933547793</v>
+        <v>0.1405147687875115</v>
       </c>
       <c r="F6">
-        <v>2.69785357249512</v>
+        <v>0.6169562592902693</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1919121745996577</v>
+        <v>0.1493590214013736</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.080116599143352</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.294003155857169</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.833072856626586</v>
+        <v>2.757658504548033</v>
       </c>
       <c r="C7">
-        <v>1.106543923058041</v>
+        <v>0.7375595784507709</v>
       </c>
       <c r="D7">
-        <v>0.01141149589569679</v>
+        <v>0.1810955182613014</v>
       </c>
       <c r="E7">
-        <v>0.08318979779939184</v>
+        <v>0.1460233081052458</v>
       </c>
       <c r="F7">
-        <v>2.785992995331355</v>
+        <v>0.6266106555789577</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1995249119535529</v>
+        <v>0.1550373645807355</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.067170979804601</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.30401240211674</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.668231169316755</v>
+        <v>3.339588423522059</v>
       </c>
       <c r="C8">
-        <v>1.355543501589977</v>
+        <v>0.8866899671124884</v>
       </c>
       <c r="D8">
-        <v>0.01314723782878957</v>
+        <v>0.2127585300334687</v>
       </c>
       <c r="E8">
-        <v>0.09722108200399049</v>
+        <v>0.1707038451566945</v>
       </c>
       <c r="F8">
-        <v>3.193292786911428</v>
+        <v>0.6737673344019299</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.234331779702373</v>
+        <v>0.1806802609140448</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.014642805751855</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.360506670192791</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.399952171997938</v>
+        <v>4.488906337300648</v>
       </c>
       <c r="C9">
-        <v>1.87213328373025</v>
+        <v>1.180346648433783</v>
       </c>
       <c r="D9">
-        <v>0.01661638974412583</v>
+        <v>0.2759562807273994</v>
       </c>
       <c r="E9">
-        <v>0.1266531407956712</v>
+        <v>0.220739105426361</v>
       </c>
       <c r="F9">
-        <v>4.077433012537341</v>
+        <v>0.7850651377551401</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.308328129764817</v>
+        <v>0.23351253069184</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9310416132952213</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.522096844626986</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.758819629263144</v>
+        <v>5.342291315928321</v>
       </c>
       <c r="C10">
-        <v>2.27813644857207</v>
+        <v>1.397731673717431</v>
       </c>
       <c r="D10">
-        <v>0.01922702097290241</v>
+        <v>0.3233170447200422</v>
       </c>
       <c r="E10">
-        <v>0.1499590010743148</v>
+        <v>0.258809549367399</v>
       </c>
       <c r="F10">
-        <v>4.801442109380559</v>
+        <v>0.8808457555358018</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3677806997093285</v>
+        <v>0.2743414614558475</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.884766466012934</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.678492775356801</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.403896393558966</v>
+        <v>5.733458057857661</v>
       </c>
       <c r="C11">
-        <v>2.471145590405683</v>
+        <v>1.497203406026472</v>
       </c>
       <c r="D11">
-        <v>0.02043462875290203</v>
+        <v>0.3451269402370656</v>
       </c>
       <c r="E11">
-        <v>0.161068587122152</v>
+        <v>0.2764893759725311</v>
       </c>
       <c r="F11">
-        <v>5.153164516521855</v>
+        <v>0.9280791213788859</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3963721419042088</v>
+        <v>0.2934654515930788</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.86792809828016</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.759457845122967</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.652874522104639</v>
+        <v>5.882097540960444</v>
       </c>
       <c r="C12">
-        <v>2.545694014368507</v>
+        <v>1.534974619621835</v>
       </c>
       <c r="D12">
-        <v>0.02089550041407406</v>
+        <v>0.3534295595307952</v>
       </c>
       <c r="E12">
-        <v>0.1653630863552351</v>
+        <v>0.2832431656870895</v>
       </c>
       <c r="F12">
-        <v>5.290207896139748</v>
+        <v>0.946548485008563</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4074667708878366</v>
+        <v>0.3007967045015647</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8622539030099006</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.791679630271631</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.599028553421419</v>
+        <v>5.850061060046471</v>
       </c>
       <c r="C13">
-        <v>2.529568965262968</v>
+        <v>1.52683497865678</v>
       </c>
       <c r="D13">
-        <v>0.02079607146504969</v>
+        <v>0.3516394053238372</v>
       </c>
       <c r="E13">
-        <v>0.1644340336702683</v>
+        <v>0.2817858841809979</v>
       </c>
       <c r="F13">
-        <v>5.260510255574673</v>
+        <v>0.9425438886149209</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4050646209765176</v>
+        <v>0.2992136384292934</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8634429721228685</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.784668083447542</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.424280414330553</v>
+        <v>5.745675901210632</v>
       </c>
       <c r="C14">
-        <v>2.477247771397344</v>
+        <v>1.50030867395833</v>
       </c>
       <c r="D14">
-        <v>0.02047246866689179</v>
+        <v>0.3458090926584276</v>
       </c>
       <c r="E14">
-        <v>0.1614200503571297</v>
+        <v>0.2770437939172297</v>
       </c>
       <c r="F14">
-        <v>5.164357826214598</v>
+        <v>0.9295865788051429</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3972792476840397</v>
+        <v>0.2940667442921949</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8674465862878833</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.762076536610408</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.317881796516303</v>
+        <v>5.681806548902216</v>
       </c>
       <c r="C15">
-        <v>2.445398402691751</v>
+        <v>1.484074633126568</v>
       </c>
       <c r="D15">
-        <v>0.0202747419383158</v>
+        <v>0.3422437199932062</v>
       </c>
       <c r="E15">
-        <v>0.1595857782151455</v>
+        <v>0.2741470013025307</v>
       </c>
       <c r="F15">
-        <v>5.105984589500309</v>
+        <v>0.9217275543418282</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.392546836771416</v>
+        <v>0.2909260866694581</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8699935400214258</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.748446673940691</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.71727151615579</v>
+        <v>5.316794486859237</v>
       </c>
       <c r="C16">
-        <v>2.265711626549944</v>
+        <v>1.391244319280361</v>
       </c>
       <c r="D16">
-        <v>0.0191485598627672</v>
+        <v>0.3218975167540492</v>
       </c>
       <c r="E16">
-        <v>0.1492443599972582</v>
+        <v>0.2576619752919882</v>
       </c>
       <c r="F16">
-        <v>4.77895806319637</v>
+        <v>0.8778373524383198</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.365946975128665</v>
+        <v>0.2731035980444432</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8859594772279706</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.673411633901594</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.35625491391886</v>
+        <v>5.09368888329027</v>
       </c>
       <c r="C17">
-        <v>2.15778210213449</v>
+        <v>1.334458479349678</v>
       </c>
       <c r="D17">
-        <v>0.01846325908742941</v>
+        <v>0.3094875056425792</v>
       </c>
       <c r="E17">
-        <v>0.1430397695446821</v>
+        <v>0.247646193409885</v>
       </c>
       <c r="F17">
-        <v>4.584483370794089</v>
+        <v>0.8518887593204028</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3500544641222234</v>
+        <v>0.2623181120909521</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.896895888732459</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.62999770416593</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.151083750414784</v>
+        <v>4.965637102502399</v>
       </c>
       <c r="C18">
-        <v>2.096468184244486</v>
+        <v>1.301850276877872</v>
       </c>
       <c r="D18">
-        <v>0.01807092635067775</v>
+        <v>0.302374201475601</v>
       </c>
       <c r="E18">
-        <v>0.139517820336426</v>
+        <v>0.2419189509615407</v>
       </c>
       <c r="F18">
-        <v>4.474687477398732</v>
+        <v>0.8373048597468227</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.341055879387028</v>
+        <v>0.2561657560619608</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9035759735641733</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.605941703006067</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.082018760022208</v>
+        <v>4.922325255150611</v>
       </c>
       <c r="C19">
-        <v>2.075832368912131</v>
+        <v>1.290818320195228</v>
       </c>
       <c r="D19">
-        <v>0.01793838549818005</v>
+        <v>0.2999698241220585</v>
       </c>
       <c r="E19">
-        <v>0.1383329812449112</v>
+        <v>0.2399853718449734</v>
       </c>
       <c r="F19">
-        <v>4.437848912976818</v>
+        <v>0.8324239367853181</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3380323202797655</v>
+        <v>0.2540911660542378</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9059020332887968</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.59794947395568</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.394423966720922</v>
+        <v>5.117410025938511</v>
       </c>
       <c r="C20">
-        <v>2.169190530272431</v>
+        <v>1.340497754008084</v>
       </c>
       <c r="D20">
-        <v>0.01853601614554989</v>
+        <v>0.3108059873084414</v>
       </c>
       <c r="E20">
-        <v>0.1436953218461561</v>
+        <v>0.2487088683756511</v>
       </c>
       <c r="F20">
-        <v>4.604968013015025</v>
+        <v>0.8546153413525417</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3517312134595016</v>
+        <v>0.2634608784623396</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8956907119999755</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.634523495507722</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.475473157240572</v>
+        <v>5.77632168551412</v>
       </c>
       <c r="C21">
-        <v>2.492573781514977</v>
+        <v>1.508097119093406</v>
       </c>
       <c r="D21">
-        <v>0.02056741519049154</v>
+        <v>0.3475203645298421</v>
       </c>
       <c r="E21">
-        <v>0.1623028245646481</v>
+        <v>0.2784350065911738</v>
       </c>
       <c r="F21">
-        <v>5.19248983440724</v>
+        <v>0.9333761536704941</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3995583303497625</v>
+        <v>0.295575999056112</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8662507081814539</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.768668563969271</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.209915955888732</v>
+        <v>6.209996301670287</v>
       </c>
       <c r="C22">
-        <v>2.712597062882423</v>
+        <v>1.618246401493195</v>
       </c>
       <c r="D22">
-        <v>0.02191635308807349</v>
+        <v>0.3717729077539502</v>
       </c>
       <c r="E22">
-        <v>0.1749830818948581</v>
+        <v>0.2982092662796134</v>
       </c>
       <c r="F22">
-        <v>5.599324278919255</v>
+        <v>0.9882797330999296</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.432404241692268</v>
+        <v>0.3170916975352753</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8511621377302845</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.865524812152898</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.8150570984875</v>
+        <v>5.978226825616218</v>
       </c>
       <c r="C23">
-        <v>2.594271120167377</v>
+        <v>1.559394509776837</v>
       </c>
       <c r="D23">
-        <v>0.02119417416663438</v>
+        <v>0.3588033352413333</v>
       </c>
       <c r="E23">
-        <v>0.1681623066165372</v>
+        <v>0.2876212343706328</v>
       </c>
       <c r="F23">
-        <v>5.379852960826526</v>
+        <v>0.9586428933880455</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4147110205337725</v>
+        <v>0.305556549957501</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8587981360449106</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.812937201034089</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.377160378686767</v>
+        <v>5.10668503544548</v>
       </c>
       <c r="C24">
-        <v>2.164030505971596</v>
+        <v>1.337767278755564</v>
       </c>
       <c r="D24">
-        <v>0.01850311757216261</v>
+        <v>0.3102098355770835</v>
       </c>
       <c r="E24">
-        <v>0.1433988070659851</v>
+        <v>0.2482283370883636</v>
       </c>
       <c r="F24">
-        <v>4.595700691368449</v>
+        <v>0.8533816165778774</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3509727278128167</v>
+        <v>0.2629440839054382</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8962343566096251</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.632474583008616</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.91866671878995</v>
+        <v>4.17671919875545</v>
       </c>
       <c r="C25">
-        <v>1.728489714190005</v>
+        <v>1.100687252547232</v>
       </c>
       <c r="D25">
-        <v>0.01566889538979765</v>
+        <v>0.2587160942326108</v>
       </c>
       <c r="E25">
-        <v>0.1184375711600225</v>
+        <v>0.2069973444809321</v>
       </c>
       <c r="F25">
-        <v>3.827007854460021</v>
+        <v>0.7526913717371286</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2875467600226074</v>
+        <v>0.2189020753687032</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9512703816157</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.472283597259093</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.497677267098652</v>
+        <v>1.335162643757997</v>
       </c>
       <c r="C2">
-        <v>0.9271483980914184</v>
+        <v>0.3007722525749443</v>
       </c>
       <c r="D2">
-        <v>0.2214037763398267</v>
+        <v>0.221191879479079</v>
       </c>
       <c r="E2">
-        <v>0.1774910958151352</v>
+        <v>0.1743160135657646</v>
       </c>
       <c r="F2">
-        <v>0.6877311088439839</v>
+        <v>1.18676455464275</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1877847294323942</v>
+        <v>0.1819088135304554</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.379021465113397</v>
+        <v>2.688228375106718</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.039699094366483</v>
+        <v>1.193101117243145</v>
       </c>
       <c r="C3">
-        <v>0.8098786812284686</v>
+        <v>0.2627201377786434</v>
       </c>
       <c r="D3">
-        <v>0.1964079816920048</v>
+        <v>0.2147181916054137</v>
       </c>
       <c r="E3">
-        <v>0.1579226624580699</v>
+        <v>0.1699470556310629</v>
       </c>
       <c r="F3">
-        <v>0.6485957269085745</v>
+        <v>1.191627199631064</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1673614886359474</v>
+        <v>0.1779213376847437</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.329006015575317</v>
+        <v>2.715148437092097</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.759198840628699</v>
+        <v>1.105774502176303</v>
       </c>
       <c r="C4">
-        <v>0.7379547609555743</v>
+        <v>0.2392675052066693</v>
       </c>
       <c r="D4">
-        <v>0.1811789601323284</v>
+        <v>0.2108020149826046</v>
       </c>
       <c r="E4">
-        <v>0.1460879554330425</v>
+        <v>0.1673444571717368</v>
       </c>
       <c r="F4">
-        <v>0.6267260072047449</v>
+        <v>1.195574216601997</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1551041090601544</v>
+        <v>0.1755854790394125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.304135980028889</v>
+        <v>2.734165832331286</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.645016711743665</v>
+        <v>1.070164852877781</v>
       </c>
       <c r="C5">
-        <v>0.7086538979568218</v>
+        <v>0.2296886941652474</v>
       </c>
       <c r="D5">
-        <v>0.1749994426842392</v>
+        <v>0.209221010957009</v>
       </c>
       <c r="E5">
-        <v>0.1413063778735335</v>
+        <v>0.1663040130095723</v>
       </c>
       <c r="F5">
-        <v>0.6183220280910788</v>
+        <v>1.197423874964471</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1501739344151929</v>
+        <v>0.1746618415502255</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.295377074206996</v>
+        <v>2.742539517129615</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.626062894674874</v>
+        <v>1.064250543346077</v>
       </c>
       <c r="C6">
-        <v>0.703788721000592</v>
+        <v>0.2280968480349088</v>
       </c>
       <c r="D6">
-        <v>0.1739748408305246</v>
+        <v>0.2089593878211531</v>
       </c>
       <c r="E6">
-        <v>0.1405147687875115</v>
+        <v>0.166132465087788</v>
       </c>
       <c r="F6">
-        <v>0.6169562592902693</v>
+        <v>1.19774556305503</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1493590214013736</v>
+        <v>0.1745101770417037</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.294003155857169</v>
+        <v>2.743967593513801</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.757658504548033</v>
+        <v>1.1052943500178</v>
       </c>
       <c r="C7">
-        <v>0.7375595784507709</v>
+        <v>0.239138408993</v>
       </c>
       <c r="D7">
-        <v>0.1810955182613014</v>
+        <v>0.210780632653254</v>
       </c>
       <c r="E7">
-        <v>0.1460233081052458</v>
+        <v>0.1673303438087004</v>
       </c>
       <c r="F7">
-        <v>0.6266106555789577</v>
+        <v>1.195598185755117</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1550373645807355</v>
+        <v>0.1755729082306487</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.30401240211674</v>
+        <v>2.734276238828414</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.339588423522059</v>
+        <v>1.286201707444718</v>
       </c>
       <c r="C8">
-        <v>0.8866899671124884</v>
+        <v>0.2876705791923655</v>
       </c>
       <c r="D8">
-        <v>0.2127585300334687</v>
+        <v>0.2189476337374145</v>
       </c>
       <c r="E8">
-        <v>0.1707038451566945</v>
+        <v>0.1727930170370726</v>
       </c>
       <c r="F8">
-        <v>0.6737673344019299</v>
+        <v>1.188241355749263</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1806802609140448</v>
+        <v>0.1805105650978973</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.360506670192791</v>
+        <v>2.696992880599879</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.488906337300648</v>
+        <v>1.640101407823295</v>
       </c>
       <c r="C9">
-        <v>1.180346648433783</v>
+        <v>0.382119492807476</v>
       </c>
       <c r="D9">
-        <v>0.2759562807273994</v>
+        <v>0.2354249270776307</v>
       </c>
       <c r="E9">
-        <v>0.220739105426361</v>
+        <v>0.184139216127619</v>
       </c>
       <c r="F9">
-        <v>0.7850651377551401</v>
+        <v>1.181467067778982</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.23351253069184</v>
+        <v>0.1910881103852802</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.522096844626986</v>
+        <v>2.643705853848758</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.342291315928321</v>
+        <v>1.899529700330447</v>
       </c>
       <c r="C10">
-        <v>1.397731673717431</v>
+        <v>0.4510502535518981</v>
       </c>
       <c r="D10">
-        <v>0.3233170447200422</v>
+        <v>0.2478085709550868</v>
       </c>
       <c r="E10">
-        <v>0.258809549367399</v>
+        <v>0.1928621402399244</v>
       </c>
       <c r="F10">
-        <v>0.8808457555358018</v>
+        <v>1.181191195775654</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2743414614558475</v>
+        <v>0.1994094103582853</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.678492775356801</v>
+        <v>2.616756535287067</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.733458057857661</v>
+        <v>2.017413814856525</v>
       </c>
       <c r="C11">
-        <v>1.497203406026472</v>
+        <v>0.4823048200655649</v>
       </c>
       <c r="D11">
-        <v>0.3451269402370656</v>
+        <v>0.2535018369541007</v>
       </c>
       <c r="E11">
-        <v>0.2764893759725311</v>
+        <v>0.1969146005759512</v>
       </c>
       <c r="F11">
-        <v>0.9280791213788859</v>
+        <v>1.182094395936929</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2934654515930788</v>
+        <v>0.2033154431350539</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.759457845122967</v>
+        <v>2.607170587895126</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.882097540960444</v>
+        <v>2.062033205660782</v>
       </c>
       <c r="C12">
-        <v>1.534974619621835</v>
+        <v>0.4941249350550265</v>
       </c>
       <c r="D12">
-        <v>0.3534295595307952</v>
+        <v>0.2556662529640619</v>
       </c>
       <c r="E12">
-        <v>0.2832431656870895</v>
+        <v>0.1984612832275445</v>
       </c>
       <c r="F12">
-        <v>0.946548485008563</v>
+        <v>1.182584944859897</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3007967045015647</v>
+        <v>0.2048119639959509</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.791679630271631</v>
+        <v>2.603927060630809</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.850061060046471</v>
+        <v>2.05242457513657</v>
       </c>
       <c r="C13">
-        <v>1.52683497865678</v>
+        <v>0.4915799520406949</v>
       </c>
       <c r="D13">
-        <v>0.3516394053238372</v>
+        <v>0.2551997309854954</v>
       </c>
       <c r="E13">
-        <v>0.2817858841809979</v>
+        <v>0.1981276395424842</v>
       </c>
       <c r="F13">
-        <v>0.9425438886149209</v>
+        <v>1.182472681038547</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2992136384292934</v>
+        <v>0.2044888872727455</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.784668083447542</v>
+        <v>2.604608391963495</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.745675901210632</v>
+        <v>2.021085105989869</v>
       </c>
       <c r="C14">
-        <v>1.50030867395833</v>
+        <v>0.483277578234663</v>
       </c>
       <c r="D14">
-        <v>0.3458090926584276</v>
+        <v>0.2536797350492037</v>
       </c>
       <c r="E14">
-        <v>0.2770437939172297</v>
+        <v>0.1970416046603134</v>
       </c>
       <c r="F14">
-        <v>0.9295865788051429</v>
+        <v>1.182131773554389</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2940667442921949</v>
+        <v>0.2034382140099495</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.762076536610408</v>
+        <v>2.606895984060515</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.681806548902216</v>
+        <v>2.001886015826244</v>
       </c>
       <c r="C15">
-        <v>1.484074633126568</v>
+        <v>0.478190123291995</v>
       </c>
       <c r="D15">
-        <v>0.3422437199932062</v>
+        <v>0.2527497972755555</v>
       </c>
       <c r="E15">
-        <v>0.2741470013025307</v>
+        <v>0.1963779524327336</v>
       </c>
       <c r="F15">
-        <v>0.9217275543418282</v>
+        <v>1.181942318267545</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2909260866694581</v>
+        <v>0.2027969124449527</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.748446673940691</v>
+        <v>2.608347589271858</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.316794486859237</v>
+        <v>1.891822893805625</v>
       </c>
       <c r="C16">
-        <v>1.391244319280361</v>
+        <v>0.4490055834085638</v>
       </c>
       <c r="D16">
-        <v>0.3218975167540492</v>
+        <v>0.247437698094032</v>
       </c>
       <c r="E16">
-        <v>0.2576619752919882</v>
+        <v>0.1925989976332971</v>
       </c>
       <c r="F16">
-        <v>0.8778373524383198</v>
+        <v>1.181152920933712</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2731035980444432</v>
+        <v>0.1991565731298977</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.673411633901594</v>
+        <v>2.617436969079591</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.09368888329027</v>
+        <v>1.824267782389541</v>
       </c>
       <c r="C17">
-        <v>1.334458479349678</v>
+        <v>0.4310751692003691</v>
       </c>
       <c r="D17">
-        <v>0.3094875056425792</v>
+        <v>0.2441941553559417</v>
       </c>
       <c r="E17">
-        <v>0.247646193409885</v>
+        <v>0.190302318261935</v>
       </c>
       <c r="F17">
-        <v>0.8518887593204028</v>
+        <v>1.180932553014244</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2623181120909521</v>
+        <v>0.196954270974615</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.62999770416593</v>
+        <v>2.623699182089297</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.965637102502399</v>
+        <v>1.785399640029539</v>
       </c>
       <c r="C18">
-        <v>1.301850276877872</v>
+        <v>0.4207524670915745</v>
       </c>
       <c r="D18">
-        <v>0.302374201475601</v>
+        <v>0.2423341985498979</v>
       </c>
       <c r="E18">
-        <v>0.2419189509615407</v>
+        <v>0.1889892708140408</v>
       </c>
       <c r="F18">
-        <v>0.8373048597468227</v>
+        <v>1.180902592998393</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2561657560619608</v>
+        <v>0.1956989167815664</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.605941703006067</v>
+        <v>2.627552556475848</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.922325255150611</v>
+        <v>1.772237513224923</v>
       </c>
       <c r="C19">
-        <v>1.290818320195228</v>
+        <v>0.4172557464386273</v>
       </c>
       <c r="D19">
-        <v>0.2999698241220585</v>
+        <v>0.2417054217749381</v>
       </c>
       <c r="E19">
-        <v>0.2399853718449734</v>
+        <v>0.1885460603415439</v>
       </c>
       <c r="F19">
-        <v>0.8324239367853181</v>
+        <v>1.180909054461367</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2540911660542378</v>
+        <v>0.195275823750606</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.59794947395568</v>
+        <v>2.628900379027812</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.117410025938511</v>
+        <v>1.831460418920585</v>
       </c>
       <c r="C20">
-        <v>1.340497754008084</v>
+        <v>0.4329848904779396</v>
       </c>
       <c r="D20">
-        <v>0.3108059873084414</v>
+        <v>0.244538852782</v>
       </c>
       <c r="E20">
-        <v>0.2487088683756511</v>
+        <v>0.1905459819535977</v>
       </c>
       <c r="F20">
-        <v>0.8546153413525417</v>
+        <v>1.18094598981358</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2634608784623396</v>
+        <v>0.1971875346156082</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.634523495507722</v>
+        <v>2.623006513256058</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.77632168551412</v>
+        <v>2.030290846391722</v>
       </c>
       <c r="C21">
-        <v>1.508097119093406</v>
+        <v>0.4857166068559877</v>
       </c>
       <c r="D21">
-        <v>0.3475203645298421</v>
+        <v>0.2541259649036931</v>
       </c>
       <c r="E21">
-        <v>0.2784350065911738</v>
+        <v>0.1973602711462235</v>
       </c>
       <c r="F21">
-        <v>0.9333761536704941</v>
+        <v>1.182227870585663</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.295575999056112</v>
+        <v>0.2037463498736827</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.768668563969271</v>
+        <v>2.606213558173465</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.209996301670287</v>
+        <v>2.160116125128013</v>
       </c>
       <c r="C22">
-        <v>1.618246401493195</v>
+        <v>0.5200903207177703</v>
       </c>
       <c r="D22">
-        <v>0.3717729077539502</v>
+        <v>0.2604411889329725</v>
       </c>
       <c r="E22">
-        <v>0.2982092662796134</v>
+        <v>0.201884341647812</v>
       </c>
       <c r="F22">
-        <v>0.9882797330999296</v>
+        <v>1.183931659366493</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3170916975352753</v>
+        <v>0.2081343037887535</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.865524812152898</v>
+        <v>2.597491932432632</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.978226825616218</v>
+        <v>2.090837707934952</v>
       </c>
       <c r="C23">
-        <v>1.559394509776837</v>
+        <v>0.5017528050880173</v>
       </c>
       <c r="D23">
-        <v>0.3588033352413333</v>
+        <v>0.2570661430368233</v>
       </c>
       <c r="E23">
-        <v>0.2876212343706328</v>
+        <v>0.1994633144937055</v>
       </c>
       <c r="F23">
-        <v>0.9586428933880455</v>
+        <v>1.182942877077267</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.305556549957501</v>
+        <v>0.2057830783654708</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.812937201034089</v>
+        <v>2.60193995995067</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.10668503544548</v>
+        <v>1.82820872065605</v>
       </c>
       <c r="C24">
-        <v>1.337767278755564</v>
+        <v>0.4321215498936226</v>
       </c>
       <c r="D24">
-        <v>0.3102098355770835</v>
+        <v>0.2443830001206777</v>
       </c>
       <c r="E24">
-        <v>0.2482283370883636</v>
+        <v>0.1904357987219072</v>
       </c>
       <c r="F24">
-        <v>0.8533816165778774</v>
+        <v>1.180939613760813</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2629440839054382</v>
+        <v>0.1970820425542712</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.632474583008616</v>
+        <v>2.623318880439456</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.17671919875545</v>
+        <v>1.544460254482601</v>
       </c>
       <c r="C25">
-        <v>1.100687252547232</v>
+        <v>0.3566480535240544</v>
       </c>
       <c r="D25">
-        <v>0.2587160942326108</v>
+        <v>0.2309183347169608</v>
       </c>
       <c r="E25">
-        <v>0.2069973444809321</v>
+        <v>0.1810018623999952</v>
       </c>
       <c r="F25">
-        <v>0.7526913717371286</v>
+        <v>1.182476715971831</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2189020753687032</v>
+        <v>0.1881303467705351</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.472283597259093</v>
+        <v>2.655987105482723</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.335162643757997</v>
+        <v>3.497677267098538</v>
       </c>
       <c r="C2">
-        <v>0.3007722525749443</v>
+        <v>0.9271483980915605</v>
       </c>
       <c r="D2">
-        <v>0.221191879479079</v>
+        <v>0.2214037763398125</v>
       </c>
       <c r="E2">
-        <v>0.1743160135657646</v>
+        <v>0.1774910958151494</v>
       </c>
       <c r="F2">
-        <v>1.18676455464275</v>
+        <v>0.6877311088439839</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1819088135304554</v>
+        <v>0.1877847294323516</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.688228375106718</v>
+        <v>1.379021465113482</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.193101117243145</v>
+        <v>3.039699094366767</v>
       </c>
       <c r="C3">
-        <v>0.2627201377786434</v>
+        <v>0.8098786812286107</v>
       </c>
       <c r="D3">
-        <v>0.2147181916054137</v>
+        <v>0.1964079816921469</v>
       </c>
       <c r="E3">
-        <v>0.1699470556310629</v>
+        <v>0.1579226624580485</v>
       </c>
       <c r="F3">
-        <v>1.191627199631064</v>
+        <v>0.6485957269085816</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1779213376847437</v>
+        <v>0.1673614886361037</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.715148437092097</v>
+        <v>1.329006015575459</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.105774502176303</v>
+        <v>2.759198840628642</v>
       </c>
       <c r="C4">
-        <v>0.2392675052066693</v>
+        <v>0.7379547609558017</v>
       </c>
       <c r="D4">
-        <v>0.2108020149826046</v>
+        <v>0.1811789601323284</v>
       </c>
       <c r="E4">
-        <v>0.1673444571717368</v>
+        <v>0.1460879554330354</v>
       </c>
       <c r="F4">
-        <v>1.195574216601997</v>
+        <v>0.6267260072047449</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1755854790394125</v>
+        <v>0.1551041090601757</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.734165832331286</v>
+        <v>1.304135980028917</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.070164852877781</v>
+        <v>2.645016711743551</v>
       </c>
       <c r="C5">
-        <v>0.2296886941652474</v>
+        <v>0.708653897956566</v>
       </c>
       <c r="D5">
-        <v>0.209221010957009</v>
+        <v>0.1749994426841965</v>
       </c>
       <c r="E5">
-        <v>0.1663040130095723</v>
+        <v>0.1413063778735157</v>
       </c>
       <c r="F5">
-        <v>1.197423874964471</v>
+        <v>0.618322028091093</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1746618415502255</v>
+        <v>0.1501739344151005</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.742539517129615</v>
+        <v>1.295377074206954</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.064250543346077</v>
+        <v>2.626062894674988</v>
       </c>
       <c r="C6">
-        <v>0.2280968480349088</v>
+        <v>0.703788721000592</v>
       </c>
       <c r="D6">
-        <v>0.2089593878211531</v>
+        <v>0.1739748408304251</v>
       </c>
       <c r="E6">
-        <v>0.166132465087788</v>
+        <v>0.1405147687874901</v>
       </c>
       <c r="F6">
-        <v>1.19774556305503</v>
+        <v>0.6169562592902622</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1745101770417037</v>
+        <v>0.1493590214014233</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.743967593513801</v>
+        <v>1.294003155857141</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.1052943500178</v>
+        <v>2.757658504548033</v>
       </c>
       <c r="C7">
-        <v>0.239138408993</v>
+        <v>0.7375595784506288</v>
       </c>
       <c r="D7">
-        <v>0.210780632653254</v>
+        <v>0.1810955182611877</v>
       </c>
       <c r="E7">
-        <v>0.1673303438087004</v>
+        <v>0.1460233081052564</v>
       </c>
       <c r="F7">
-        <v>1.195598185755117</v>
+        <v>0.626610655578979</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1755729082306487</v>
+        <v>0.1550373645806715</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.734276238828414</v>
+        <v>1.30401240211674</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.286201707444718</v>
+        <v>3.339588423522173</v>
       </c>
       <c r="C8">
-        <v>0.2876705791923655</v>
+        <v>0.8866899671127726</v>
       </c>
       <c r="D8">
-        <v>0.2189476337374145</v>
+        <v>0.2127585300333834</v>
       </c>
       <c r="E8">
-        <v>0.1727930170370726</v>
+        <v>0.1707038451566731</v>
       </c>
       <c r="F8">
-        <v>1.188241355749263</v>
+        <v>0.6737673344019299</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1805105650978973</v>
+        <v>0.1806802609140732</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.696992880599879</v>
+        <v>1.360506670192763</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.640101407823295</v>
+        <v>4.488906337300875</v>
       </c>
       <c r="C9">
-        <v>0.382119492807476</v>
+        <v>1.180346648433783</v>
       </c>
       <c r="D9">
-        <v>0.2354249270776307</v>
+        <v>0.2759562807276268</v>
       </c>
       <c r="E9">
-        <v>0.184139216127619</v>
+        <v>0.2207391054263468</v>
       </c>
       <c r="F9">
-        <v>1.181467067778982</v>
+        <v>0.7850651377551401</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1910881103852802</v>
+        <v>0.2335125306918826</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.643705853848758</v>
+        <v>1.522096844626986</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.899529700330447</v>
+        <v>5.342291315928264</v>
       </c>
       <c r="C10">
-        <v>0.4510502535518981</v>
+        <v>1.39773167371709</v>
       </c>
       <c r="D10">
-        <v>0.2478085709550868</v>
+        <v>0.3233170447198148</v>
       </c>
       <c r="E10">
-        <v>0.1928621402399244</v>
+        <v>0.2588095493674274</v>
       </c>
       <c r="F10">
-        <v>1.181191195775654</v>
+        <v>0.880845755535816</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1994094103582853</v>
+        <v>0.2743414614558759</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.616756535287067</v>
+        <v>1.678492775356801</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.017413814856525</v>
+        <v>5.733458057857604</v>
       </c>
       <c r="C11">
-        <v>0.4823048200655649</v>
+        <v>1.497203406026301</v>
       </c>
       <c r="D11">
-        <v>0.2535018369541007</v>
+        <v>0.3451269402371224</v>
       </c>
       <c r="E11">
-        <v>0.1969146005759512</v>
+        <v>0.2764893759725524</v>
       </c>
       <c r="F11">
-        <v>1.182094395936929</v>
+        <v>0.9280791213789144</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2033154431350539</v>
+        <v>0.2934654515930788</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.607170587895126</v>
+        <v>1.759457845122967</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.062033205660782</v>
+        <v>5.882097540960785</v>
       </c>
       <c r="C12">
-        <v>0.4941249350550265</v>
+        <v>1.534974619621892</v>
       </c>
       <c r="D12">
-        <v>0.2556662529640619</v>
+        <v>0.3534295595308521</v>
       </c>
       <c r="E12">
-        <v>0.1984612832275445</v>
+        <v>0.2832431656870753</v>
       </c>
       <c r="F12">
-        <v>1.182584944859897</v>
+        <v>0.9465484850085488</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2048119639959509</v>
+        <v>0.3007967045016358</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.603927060630809</v>
+        <v>1.791679630271631</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.05242457513657</v>
+        <v>5.850061060046926</v>
       </c>
       <c r="C13">
-        <v>0.4915799520406949</v>
+        <v>1.52683497865695</v>
       </c>
       <c r="D13">
-        <v>0.2551997309854954</v>
+        <v>0.351639405323553</v>
       </c>
       <c r="E13">
-        <v>0.1981276395424842</v>
+        <v>0.2817858841810192</v>
       </c>
       <c r="F13">
-        <v>1.182472681038547</v>
+        <v>0.9425438886149067</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2044888872727455</v>
+        <v>0.2992136384291939</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.604608391963495</v>
+        <v>1.784668083447514</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.021085105989869</v>
+        <v>5.745675901210632</v>
       </c>
       <c r="C14">
-        <v>0.483277578234663</v>
+        <v>1.5003086739585</v>
       </c>
       <c r="D14">
-        <v>0.2536797350492037</v>
+        <v>0.3458090926582571</v>
       </c>
       <c r="E14">
-        <v>0.1970416046603134</v>
+        <v>0.2770437939172155</v>
       </c>
       <c r="F14">
-        <v>1.182131773554389</v>
+        <v>0.9295865788051572</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2034382140099495</v>
+        <v>0.2940667442921523</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.606895984060515</v>
+        <v>1.762076536610408</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.001886015826244</v>
+        <v>5.681806548902102</v>
       </c>
       <c r="C15">
-        <v>0.478190123291995</v>
+        <v>1.484074633126284</v>
       </c>
       <c r="D15">
-        <v>0.2527497972755555</v>
+        <v>0.3422437199932062</v>
       </c>
       <c r="E15">
-        <v>0.1963779524327336</v>
+        <v>0.2741470013025449</v>
       </c>
       <c r="F15">
-        <v>1.181942318267545</v>
+        <v>0.9217275543418424</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2027969124449527</v>
+        <v>0.2909260866694439</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.608347589271858</v>
+        <v>1.748446673940691</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.891822893805625</v>
+        <v>5.316794486859237</v>
       </c>
       <c r="C16">
-        <v>0.4490055834085638</v>
+        <v>1.391244319280531</v>
       </c>
       <c r="D16">
-        <v>0.247437698094032</v>
+        <v>0.3218975167539924</v>
       </c>
       <c r="E16">
-        <v>0.1925989976332971</v>
+        <v>0.2576619752920166</v>
       </c>
       <c r="F16">
-        <v>1.181152920933712</v>
+        <v>0.8778373524382914</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1991565731298977</v>
+        <v>0.2731035980443721</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.617436969079591</v>
+        <v>1.673411633901651</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.824267782389541</v>
+        <v>5.093688883290326</v>
       </c>
       <c r="C17">
-        <v>0.4310751692003691</v>
+        <v>1.334458479350076</v>
       </c>
       <c r="D17">
-        <v>0.2441941553559417</v>
+        <v>0.3094875056425792</v>
       </c>
       <c r="E17">
-        <v>0.190302318261935</v>
+        <v>0.2476461934099135</v>
       </c>
       <c r="F17">
-        <v>1.180932553014244</v>
+        <v>0.8518887593203743</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.196954270974615</v>
+        <v>0.2623181120909095</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.623699182089297</v>
+        <v>1.629997704165987</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.785399640029539</v>
+        <v>4.965637102502285</v>
       </c>
       <c r="C18">
-        <v>0.4207524670915745</v>
+        <v>1.301850276877531</v>
       </c>
       <c r="D18">
-        <v>0.2423341985498979</v>
+        <v>0.3023742014755015</v>
       </c>
       <c r="E18">
-        <v>0.1889892708140408</v>
+        <v>0.2419189509615691</v>
       </c>
       <c r="F18">
-        <v>1.180902592998393</v>
+        <v>0.8373048597468227</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1956989167815664</v>
+        <v>0.2561657560619324</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.627552556475848</v>
+        <v>1.605941703006067</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.772237513224923</v>
+        <v>4.92232525515027</v>
       </c>
       <c r="C19">
-        <v>0.4172557464386273</v>
+        <v>1.290818320194205</v>
       </c>
       <c r="D19">
-        <v>0.2417054217749381</v>
+        <v>0.2999698241217743</v>
       </c>
       <c r="E19">
-        <v>0.1885460603415439</v>
+        <v>0.2399853718449663</v>
       </c>
       <c r="F19">
-        <v>1.180909054461367</v>
+        <v>0.8324239367853181</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.195275823750606</v>
+        <v>0.2540911660543514</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.628900379027812</v>
+        <v>1.59794947395568</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.831460418920585</v>
+        <v>5.117410025938511</v>
       </c>
       <c r="C20">
-        <v>0.4329848904779396</v>
+        <v>1.340497754008538</v>
       </c>
       <c r="D20">
-        <v>0.244538852782</v>
+        <v>0.310805987308342</v>
       </c>
       <c r="E20">
-        <v>0.1905459819535977</v>
+        <v>0.2487088683756156</v>
       </c>
       <c r="F20">
-        <v>1.18094598981358</v>
+        <v>0.8546153413525275</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1971875346156082</v>
+        <v>0.2634608784622543</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.623006513256058</v>
+        <v>1.63452349550775</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.030290846391722</v>
+        <v>5.776321685514063</v>
       </c>
       <c r="C21">
-        <v>0.4857166068559877</v>
+        <v>1.508097119092895</v>
       </c>
       <c r="D21">
-        <v>0.2541259649036931</v>
+        <v>0.3475203645297285</v>
       </c>
       <c r="E21">
-        <v>0.1973602711462235</v>
+        <v>0.2784350065911951</v>
       </c>
       <c r="F21">
-        <v>1.182227870585663</v>
+        <v>0.9333761536704799</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2037463498736827</v>
+        <v>0.2955759990561404</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.606213558173465</v>
+        <v>1.7686685639693</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.160116125128013</v>
+        <v>6.20999630167006</v>
       </c>
       <c r="C22">
-        <v>0.5200903207177703</v>
+        <v>1.618246401493309</v>
       </c>
       <c r="D22">
-        <v>0.2604411889329725</v>
+        <v>0.3717729077537939</v>
       </c>
       <c r="E22">
-        <v>0.201884341647812</v>
+        <v>0.2982092662795992</v>
       </c>
       <c r="F22">
-        <v>1.183931659366493</v>
+        <v>0.9882797330999296</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2081343037887535</v>
+        <v>0.3170916975352185</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.597491932432632</v>
+        <v>1.865524812152785</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.090837707934952</v>
+        <v>5.978226825616218</v>
       </c>
       <c r="C23">
-        <v>0.5017528050880173</v>
+        <v>1.55939450977661</v>
       </c>
       <c r="D23">
-        <v>0.2570661430368233</v>
+        <v>0.3588033352413618</v>
       </c>
       <c r="E23">
-        <v>0.1994633144937055</v>
+        <v>0.2876212343706968</v>
       </c>
       <c r="F23">
-        <v>1.182942877077267</v>
+        <v>0.9586428933880313</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2057830783654708</v>
+        <v>0.3055565499575437</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.60193995995067</v>
+        <v>1.812937201034146</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.82820872065605</v>
+        <v>5.106685035445253</v>
       </c>
       <c r="C24">
-        <v>0.4321215498936226</v>
+        <v>1.337767278755734</v>
       </c>
       <c r="D24">
-        <v>0.2443830001206777</v>
+        <v>0.3102098355767566</v>
       </c>
       <c r="E24">
-        <v>0.1904357987219072</v>
+        <v>0.2482283370883707</v>
       </c>
       <c r="F24">
-        <v>1.180939613760813</v>
+        <v>0.8533816165778774</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1970820425542712</v>
+        <v>0.2629440839054524</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.623318880439456</v>
+        <v>1.632474583008531</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.544460254482601</v>
+        <v>4.176719198755336</v>
       </c>
       <c r="C25">
-        <v>0.3566480535240544</v>
+        <v>1.100687252547004</v>
       </c>
       <c r="D25">
-        <v>0.2309183347169608</v>
+        <v>0.2587160942325397</v>
       </c>
       <c r="E25">
-        <v>0.1810018623999952</v>
+        <v>0.2069973444809321</v>
       </c>
       <c r="F25">
-        <v>1.182476715971831</v>
+        <v>0.7526913717371144</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1881303467705351</v>
+        <v>0.2189020753687032</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.655987105482723</v>
+        <v>1.47228359725915</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.497677267098538</v>
+        <v>3.880483315738161</v>
       </c>
       <c r="C2">
-        <v>0.9271483980915605</v>
+        <v>1.595565695304572</v>
       </c>
       <c r="D2">
-        <v>0.2214037763398125</v>
+        <v>0.04627030283482014</v>
       </c>
       <c r="E2">
-        <v>0.1774910958151494</v>
+        <v>0.1364608618140828</v>
       </c>
       <c r="F2">
-        <v>0.6877311088439839</v>
+        <v>2.589825021006476</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.956158819815812E-06</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0005276549499053651</v>
       </c>
       <c r="J2">
-        <v>0.1877847294323516</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9803093468399311</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2656336225001894</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,45 +466,51 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.379021465113482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8537130775959447</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.039699094366767</v>
+        <v>3.377989938280166</v>
       </c>
       <c r="C3">
-        <v>0.8098786812286107</v>
+        <v>1.385763215879763</v>
       </c>
       <c r="D3">
-        <v>0.1964079816921469</v>
+        <v>0.04053004482288713</v>
       </c>
       <c r="E3">
-        <v>0.1579226624580485</v>
+        <v>0.1193435635460318</v>
       </c>
       <c r="F3">
-        <v>0.6485957269085816</v>
+        <v>2.347444455091335</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0004767397005132068</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005911147567605468</v>
       </c>
       <c r="J3">
-        <v>0.1673614886361037</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9106289163073455</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2321984343715187</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,45 +519,51 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.329006015575459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8856298189992522</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.759198840628642</v>
+        <v>3.069771337543955</v>
       </c>
       <c r="C4">
-        <v>0.7379547609558017</v>
+        <v>1.258249275053458</v>
       </c>
       <c r="D4">
-        <v>0.1811789601323284</v>
+        <v>0.0370712133262785</v>
       </c>
       <c r="E4">
-        <v>0.1460879554330354</v>
+        <v>0.1089297534279581</v>
       </c>
       <c r="F4">
-        <v>0.6267260072047449</v>
+        <v>2.19985951246889</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001334648365888036</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001173054308591936</v>
       </c>
       <c r="J4">
-        <v>0.1551041090601757</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.868197255706427</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2118039049353087</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,45 +572,51 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.304135980028917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9055836685441179</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.645016711743551</v>
+        <v>2.94178582887929</v>
       </c>
       <c r="C5">
-        <v>0.708653897956566</v>
+        <v>1.207135633943153</v>
       </c>
       <c r="D5">
-        <v>0.1749994426841965</v>
+        <v>0.03577310829241043</v>
       </c>
       <c r="E5">
-        <v>0.1413063778735157</v>
+        <v>0.1047474734475493</v>
       </c>
       <c r="F5">
-        <v>0.618322028091093</v>
+        <v>2.13782212870008</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001820501084067949</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001610156462069856</v>
       </c>
       <c r="J5">
-        <v>0.1501739344151005</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8496891849582653</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.203463555261564</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,45 +625,51 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.295377074206954</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.913298952393685</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.626062894674988</v>
+        <v>2.917586837204055</v>
       </c>
       <c r="C6">
-        <v>0.703788721000592</v>
+        <v>1.199355329218974</v>
       </c>
       <c r="D6">
-        <v>0.1739748408304251</v>
+        <v>0.03567703708021952</v>
       </c>
       <c r="E6">
-        <v>0.1405147687874901</v>
+        <v>0.1041051170459539</v>
       </c>
       <c r="F6">
-        <v>0.6169562592902622</v>
+        <v>2.124898945733548</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001912517917885603</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001786769087363638</v>
       </c>
       <c r="J6">
-        <v>0.1493590214014233</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.84504476731788</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.202012544914524</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,45 +678,51 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.294003155857141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9139773559534916</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.757658504548033</v>
+        <v>3.059959907590326</v>
       </c>
       <c r="C7">
-        <v>0.7375595784506288</v>
+        <v>1.2594499807538</v>
       </c>
       <c r="D7">
-        <v>0.1810955182611877</v>
+        <v>0.0373782333071091</v>
       </c>
       <c r="E7">
-        <v>0.1460233081052564</v>
+        <v>0.1090128838228175</v>
       </c>
       <c r="F7">
-        <v>0.626610655578979</v>
+        <v>2.191805724674637</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001348506591165366</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001423077048285926</v>
       </c>
       <c r="J7">
-        <v>0.1550373645806715</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8636366576426653</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2115058884868262</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,45 +731,51 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.30401240211674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9040416730557723</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.339588423522173</v>
+        <v>3.696269057494817</v>
       </c>
       <c r="C8">
-        <v>0.8866899671127726</v>
+        <v>1.525446910156177</v>
       </c>
       <c r="D8">
-        <v>0.2127585300333834</v>
+        <v>0.04470972151090535</v>
       </c>
       <c r="E8">
-        <v>0.1707038451566731</v>
+        <v>0.130721790902701</v>
       </c>
       <c r="F8">
-        <v>0.6737673344019299</v>
+        <v>2.496347360645302</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.437729542816626E-05</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007073537599806556</v>
       </c>
       <c r="J8">
-        <v>0.1806802609140732</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9504631259021039</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.253820576384129</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,45 +784,51 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.360506670192763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8625328005487454</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.488906337300875</v>
+        <v>4.964044586249315</v>
       </c>
       <c r="C9">
-        <v>1.180346648433783</v>
+        <v>2.056131701144636</v>
       </c>
       <c r="D9">
-        <v>0.2759562807276268</v>
+        <v>0.05910875179596786</v>
       </c>
       <c r="E9">
-        <v>0.2207391054263468</v>
+        <v>0.1740206183461979</v>
       </c>
       <c r="F9">
-        <v>0.7850651377551401</v>
+        <v>3.11892944765836</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002420383713575003</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003739738311645979</v>
       </c>
       <c r="J9">
-        <v>0.2335125306918826</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.132132260137539</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3386108684874216</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,45 +837,51 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.522096844626986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.787077618285533</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.342291315928264</v>
+        <v>5.862996351349409</v>
       </c>
       <c r="C10">
-        <v>1.39773167371709</v>
+        <v>2.434212734062726</v>
       </c>
       <c r="D10">
-        <v>0.3233170447198148</v>
+        <v>0.06817806655978131</v>
       </c>
       <c r="E10">
-        <v>0.2588095493674274</v>
+        <v>0.1984683155186815</v>
       </c>
       <c r="F10">
-        <v>0.880845755535816</v>
+        <v>3.532097404569839</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.007659840110244343</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.009484740622751175</v>
       </c>
       <c r="J10">
-        <v>0.2743414614558759</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.249123944255956</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3849650271747578</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,45 +890,51 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.678492775356801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7279262199961174</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.733458057857604</v>
+        <v>5.947836104823011</v>
       </c>
       <c r="C11">
-        <v>1.497203406026301</v>
+        <v>2.407117858200877</v>
       </c>
       <c r="D11">
-        <v>0.3451269402371224</v>
+        <v>0.05532319605337932</v>
       </c>
       <c r="E11">
-        <v>0.2764893759725524</v>
+        <v>0.1443687208643674</v>
       </c>
       <c r="F11">
-        <v>0.9280791213789144</v>
+        <v>3.267378756391963</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02643156138719505</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01145898516961008</v>
       </c>
       <c r="J11">
-        <v>0.2934654515930788</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.144946745376799</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2709713018111586</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,45 +943,51 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.759457845122967</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.6629508026903181</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.882097540960785</v>
+        <v>5.839057079573138</v>
       </c>
       <c r="C12">
-        <v>1.534974619621892</v>
+        <v>2.300729468908571</v>
       </c>
       <c r="D12">
-        <v>0.3534295595308521</v>
+        <v>0.04387445985962302</v>
       </c>
       <c r="E12">
-        <v>0.2832431656870753</v>
+        <v>0.1027691821908086</v>
       </c>
       <c r="F12">
-        <v>0.9465484850085488</v>
+        <v>2.976285961790182</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06440105999683254</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.0113457681182485</v>
       </c>
       <c r="J12">
-        <v>0.3007967045016358</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.042457382151767</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1862678628528371</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,45 +996,51 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.791679630271631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.634023000280008</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.850061060046926</v>
+        <v>5.563153733555225</v>
       </c>
       <c r="C13">
-        <v>1.52683497865695</v>
+        <v>2.131218949842037</v>
       </c>
       <c r="D13">
-        <v>0.351639405323553</v>
+        <v>0.03339756178640485</v>
       </c>
       <c r="E13">
-        <v>0.2817858841810192</v>
+        <v>0.06887847850950202</v>
       </c>
       <c r="F13">
-        <v>0.9425438886149067</v>
+        <v>2.638615373833119</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.118733527277314</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.009911286392942031</v>
       </c>
       <c r="J13">
-        <v>0.2992136384291939</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9289770371825483</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1195191191081548</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,45 +1049,51 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.784668083447514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.627847665319706</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.745675901210632</v>
+        <v>5.294035522319291</v>
       </c>
       <c r="C14">
-        <v>1.5003086739585</v>
+        <v>1.986170348331825</v>
       </c>
       <c r="D14">
-        <v>0.3458090926582571</v>
+        <v>0.02687046251740099</v>
       </c>
       <c r="E14">
-        <v>0.2770437939172155</v>
+        <v>0.0501717747729149</v>
       </c>
       <c r="F14">
-        <v>0.9295865788051572</v>
+        <v>2.383332245078947</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1669001242094765</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00850652348449632</v>
       </c>
       <c r="J14">
-        <v>0.2940667442921523</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8448246506017156</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08420355409436908</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,45 +1102,51 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.762076536610408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.6348958875863335</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.681806548902102</v>
+        <v>5.19081960214362</v>
       </c>
       <c r="C15">
-        <v>1.484074633126284</v>
+        <v>1.93851594693848</v>
       </c>
       <c r="D15">
-        <v>0.3422437199932062</v>
+        <v>0.02532346389660844</v>
       </c>
       <c r="E15">
-        <v>0.2741470013025449</v>
+        <v>0.04610289220532593</v>
       </c>
       <c r="F15">
-        <v>0.9217275543418424</v>
+        <v>2.308551236314386</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.178950234130582</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.008026043357185486</v>
       </c>
       <c r="J15">
-        <v>0.2909260866694439</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.820414693191637</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07679083030306089</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,45 +1155,51 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.748446673940691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.6399533306818306</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.316794486859237</v>
+        <v>4.863018897888594</v>
       </c>
       <c r="C16">
-        <v>1.391244319280531</v>
+        <v>1.816118479879322</v>
       </c>
       <c r="D16">
-        <v>0.3218975167539924</v>
+        <v>0.02397883084725905</v>
       </c>
       <c r="E16">
-        <v>0.2576619752920166</v>
+        <v>0.04395881877551489</v>
       </c>
       <c r="F16">
-        <v>0.8778373524382914</v>
+        <v>2.204667580667135</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1644210214693658</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.005956189021425473</v>
       </c>
       <c r="J16">
-        <v>0.2731035980443721</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7933473554407442</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07343795812503018</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,45 +1208,51 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.673411633901651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.663890891793427</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.093688883290326</v>
+        <v>4.753284508741444</v>
       </c>
       <c r="C17">
-        <v>1.334458479350076</v>
+        <v>1.798601352956553</v>
       </c>
       <c r="D17">
-        <v>0.3094875056425792</v>
+        <v>0.02623071699384738</v>
       </c>
       <c r="E17">
-        <v>0.2476461934099135</v>
+        <v>0.05116783636163369</v>
       </c>
       <c r="F17">
-        <v>0.8518887593203743</v>
+        <v>2.257834670283259</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1258970764346117</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005140553759486188</v>
       </c>
       <c r="J17">
-        <v>0.2623181120909095</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8163275987561818</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.087183604638291</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,45 +1261,51 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.629997704165987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.6779278773581243</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.965637102502285</v>
+        <v>4.8241108647739</v>
       </c>
       <c r="C18">
-        <v>1.301850276877531</v>
+        <v>1.868012474989655</v>
       </c>
       <c r="D18">
-        <v>0.3023742014755015</v>
+        <v>0.03258446059903264</v>
       </c>
       <c r="E18">
-        <v>0.2419189509615691</v>
+        <v>0.07188343531005259</v>
       </c>
       <c r="F18">
-        <v>0.8373048597468227</v>
+        <v>2.462533613764336</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07306025482863987</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.004849809616573886</v>
       </c>
       <c r="J18">
-        <v>0.2561657560619324</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8900235919189257</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1276934110105969</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,45 +1314,51 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.605941703006067</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.6905618719806282</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.92232525515027</v>
+        <v>5.021128010655957</v>
       </c>
       <c r="C19">
-        <v>1.290818320194205</v>
+        <v>2.008105213420606</v>
       </c>
       <c r="D19">
-        <v>0.2999698241217743</v>
+        <v>0.04362487618406163</v>
       </c>
       <c r="E19">
-        <v>0.2399853718449663</v>
+        <v>0.1093802498193988</v>
       </c>
       <c r="F19">
-        <v>0.8324239367853181</v>
+        <v>2.773486427733161</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0285622775849248</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005494033488953498</v>
       </c>
       <c r="J19">
-        <v>0.2540911660543514</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9962602219791989</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2027003959797327</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,45 +1367,51 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.59794947395568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7084028756211005</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.117410025938511</v>
+        <v>5.598502424141429</v>
       </c>
       <c r="C20">
-        <v>1.340497754008538</v>
+        <v>2.339166393730977</v>
       </c>
       <c r="D20">
-        <v>0.310805987308342</v>
+        <v>0.06670574513604066</v>
       </c>
       <c r="E20">
-        <v>0.2487088683756156</v>
+        <v>0.1920719923857703</v>
       </c>
       <c r="F20">
-        <v>0.8546153413525275</v>
+        <v>3.397690201222474</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.005949646176051981</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.008321281724752438</v>
       </c>
       <c r="J20">
-        <v>0.2634608784622543</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.203787975305104</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3713514529192992</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,45 +1420,51 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.63452349550775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7385627896534004</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.776321685514063</v>
+        <v>6.352400504889658</v>
       </c>
       <c r="C21">
-        <v>1.508097119092895</v>
+        <v>2.66886034075344</v>
       </c>
       <c r="D21">
-        <v>0.3475203645297285</v>
+        <v>0.07703336657564819</v>
       </c>
       <c r="E21">
-        <v>0.2784350065911951</v>
+        <v>0.2240457147199777</v>
       </c>
       <c r="F21">
-        <v>0.9333761536704799</v>
+        <v>3.804493941094364</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01158742373800603</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0142184498418283</v>
       </c>
       <c r="J21">
-        <v>0.2955759990561404</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.325380460006798</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4344749442680751</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,45 +1473,51 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.7686685639693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7033267636694873</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.20999630167006</v>
+        <v>6.841060188171753</v>
       </c>
       <c r="C22">
-        <v>1.618246401493309</v>
+        <v>2.872971840289551</v>
       </c>
       <c r="D22">
-        <v>0.3717729077537939</v>
+        <v>0.08236290082233921</v>
       </c>
       <c r="E22">
-        <v>0.2982092662795992</v>
+        <v>0.2407912480045695</v>
       </c>
       <c r="F22">
-        <v>0.9882797330999296</v>
+        <v>4.057142066788998</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01611713841787443</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01866508833462088</v>
       </c>
       <c r="J22">
-        <v>0.3170916975352185</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.402656552657788</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4676866753933524</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,45 +1526,51 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.865524812152785</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.680049805846707</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.978226825616218</v>
+        <v>6.590079318659321</v>
       </c>
       <c r="C23">
-        <v>1.55939450977661</v>
+        <v>2.761444461990436</v>
       </c>
       <c r="D23">
-        <v>0.3588033352413618</v>
+        <v>0.07910350713455472</v>
       </c>
       <c r="E23">
-        <v>0.2876212343706968</v>
+        <v>0.2316588903527474</v>
       </c>
       <c r="F23">
-        <v>0.9586428933880313</v>
+        <v>3.930727481661165</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01363798188256182</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01598319869297793</v>
       </c>
       <c r="J23">
-        <v>0.3055565499575437</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.366502475442431</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4501588158738912</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,45 +1579,51 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.812937201034146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.6941036214043841</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.106685035445253</v>
+        <v>5.629677032454651</v>
       </c>
       <c r="C24">
-        <v>1.337767278755734</v>
+        <v>2.348918056668197</v>
       </c>
       <c r="D24">
-        <v>0.3102098355767566</v>
+        <v>0.06766405339818959</v>
       </c>
       <c r="E24">
-        <v>0.2482283370883707</v>
+        <v>0.197904161164665</v>
       </c>
       <c r="F24">
-        <v>0.8533816165778774</v>
+        <v>3.445368583701281</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.006025330799218076</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.007983237637480656</v>
       </c>
       <c r="J24">
-        <v>0.2629440839054524</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.223746334202261</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3843772923724913</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,45 +1632,51 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.632474583008531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.7459288834873803</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.176719198755336</v>
+        <v>4.605001105118333</v>
       </c>
       <c r="C25">
-        <v>1.100687252547004</v>
+        <v>1.914384172683356</v>
       </c>
       <c r="D25">
-        <v>0.2587160942325397</v>
+        <v>0.05573681330077562</v>
       </c>
       <c r="E25">
-        <v>0.2069973444809321</v>
+        <v>0.1624255233019731</v>
       </c>
       <c r="F25">
-        <v>0.7526913717371144</v>
+        <v>2.935551164019586</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001171739047371556</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002701647469089075</v>
       </c>
       <c r="J25">
-        <v>0.2189020753687032</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.074586945209276</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3151003598029121</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.47228359725915</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.804368317333509</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.880483315738161</v>
+        <v>3.498476166214061</v>
       </c>
       <c r="C2">
-        <v>1.595565695304572</v>
+        <v>1.693834615201524</v>
       </c>
       <c r="D2">
-        <v>0.04627030283482014</v>
+        <v>0.06594161323322112</v>
       </c>
       <c r="E2">
-        <v>0.1364608618140828</v>
+        <v>0.1462176653105907</v>
       </c>
       <c r="F2">
-        <v>2.589825021006476</v>
+        <v>2.235732319872383</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.956158819815812E-06</v>
+        <v>1.860200219239161E-05</v>
       </c>
       <c r="I2">
-        <v>0.0005276549499053651</v>
+        <v>0.0007905769554055198</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.9803093468399311</v>
+        <v>0.7652251195305766</v>
       </c>
       <c r="L2">
-        <v>0.2656336225001894</v>
+        <v>0.3467379226598553</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2370307611642488</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2601322501002414</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8537130775959447</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7712492701876803</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.377989938280166</v>
+        <v>3.056380093338248</v>
       </c>
       <c r="C3">
-        <v>1.385763215879763</v>
+        <v>1.469635123793068</v>
       </c>
       <c r="D3">
-        <v>0.04053004482288713</v>
+        <v>0.05753798830731682</v>
       </c>
       <c r="E3">
-        <v>0.1193435635460318</v>
+        <v>0.1281866944954153</v>
       </c>
       <c r="F3">
-        <v>2.347444455091335</v>
+        <v>2.042323191928958</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0004767397005132068</v>
+        <v>0.0003001919802283481</v>
       </c>
       <c r="I3">
-        <v>0.0005911147567605468</v>
+        <v>0.0005167729640729313</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.9106289163073455</v>
+        <v>0.7221598108307958</v>
       </c>
       <c r="L3">
-        <v>0.2321984343715187</v>
+        <v>0.3392475997578686</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2125885304198221</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.228424059535179</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8856298189992522</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.8050580699314951</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.069771337543955</v>
+        <v>2.784331782705124</v>
       </c>
       <c r="C4">
-        <v>1.258249275053458</v>
+        <v>1.333369481818465</v>
       </c>
       <c r="D4">
-        <v>0.0370712133262785</v>
+        <v>0.05246541018604489</v>
       </c>
       <c r="E4">
-        <v>0.1089297534279581</v>
+        <v>0.1171988556116723</v>
       </c>
       <c r="F4">
-        <v>2.19985951246889</v>
+        <v>1.924242208069501</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001334648365888036</v>
+        <v>0.0009632132987542619</v>
       </c>
       <c r="I4">
-        <v>0.001173054308591936</v>
+        <v>0.0007653082780576526</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.868197255706427</v>
+        <v>0.6957958603526535</v>
       </c>
       <c r="L4">
-        <v>0.2118039049353087</v>
+        <v>0.3342899574857014</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1985591825273758</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2090360890461724</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9055836685441179</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8263082365161289</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.94178582887929</v>
+        <v>2.671134238186312</v>
       </c>
       <c r="C5">
-        <v>1.207135633943153</v>
+        <v>1.278692889654792</v>
       </c>
       <c r="D5">
-        <v>0.03577310829241043</v>
+        <v>0.0505260703350956</v>
       </c>
       <c r="E5">
-        <v>0.1047474734475493</v>
+        <v>0.1127786902161922</v>
       </c>
       <c r="F5">
-        <v>2.13782212870008</v>
+        <v>1.874378909116999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001820501084067949</v>
+        <v>0.001351376952318573</v>
       </c>
       <c r="I5">
-        <v>0.001610156462069856</v>
+        <v>0.00104792212662197</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.8496891849582653</v>
+        <v>0.6840091435701439</v>
       </c>
       <c r="L5">
-        <v>0.203463555261564</v>
+        <v>0.3317267550249525</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1927396676328321</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2010982324162285</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.913298952393685</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8348524951886525</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.917586837204055</v>
+        <v>2.649695537647005</v>
       </c>
       <c r="C6">
-        <v>1.199355329218974</v>
+        <v>1.270297870090417</v>
       </c>
       <c r="D6">
-        <v>0.03567703708021952</v>
+        <v>0.05033734935815914</v>
       </c>
       <c r="E6">
-        <v>0.1041051170459539</v>
+        <v>0.1120951194421735</v>
       </c>
       <c r="F6">
-        <v>2.124898945733548</v>
+        <v>1.863812932036026</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001912517917885603</v>
+        <v>0.001425384456557932</v>
       </c>
       <c r="I6">
-        <v>0.001786769087363638</v>
+        <v>0.001211710618771455</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.84504476731788</v>
+        <v>0.6807668582883508</v>
       </c>
       <c r="L6">
-        <v>0.202012544914524</v>
+        <v>0.3307446621691028</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1913713036227591</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1997185760907456</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9139773559534916</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8359966246643173</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.059959907590326</v>
+        <v>2.775598380835731</v>
       </c>
       <c r="C7">
-        <v>1.2594499807538</v>
+        <v>1.334455378127814</v>
       </c>
       <c r="D7">
-        <v>0.0373782333071091</v>
+        <v>0.052801617786713</v>
       </c>
       <c r="E7">
-        <v>0.1090128838228175</v>
+        <v>0.1172746224889352</v>
       </c>
       <c r="F7">
-        <v>2.191805724674637</v>
+        <v>1.917302561301724</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.001348506591165366</v>
+        <v>0.0009740116035155122</v>
       </c>
       <c r="I7">
-        <v>0.001423077048285926</v>
+        <v>0.001051283416265036</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.8636366576426653</v>
+        <v>0.6921288665944516</v>
       </c>
       <c r="L7">
-        <v>0.2115058884868262</v>
+        <v>0.3327743439413879</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1973212539844091</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2087581409045569</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9040416730557723</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8256821619592678</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.696269057494817</v>
+        <v>3.336503397521369</v>
       </c>
       <c r="C8">
-        <v>1.525446910156177</v>
+        <v>1.618647335956837</v>
       </c>
       <c r="D8">
-        <v>0.04470972151090535</v>
+        <v>0.06351211089148734</v>
       </c>
       <c r="E8">
-        <v>0.130721790902701</v>
+        <v>0.1401616397036669</v>
       </c>
       <c r="F8">
-        <v>2.496347360645302</v>
+        <v>2.16057347517409</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.437729542816626E-05</v>
+        <v>1.014713125169209E-05</v>
       </c>
       <c r="I8">
-        <v>0.0007073537599806556</v>
+        <v>0.0009324706141917716</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.9504631259021039</v>
+        <v>0.7457265365180774</v>
       </c>
       <c r="L8">
-        <v>0.253820576384129</v>
+        <v>0.342366471992591</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2267729447947815</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2489480617551436</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8625328005487454</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7819502835545666</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.964044586249315</v>
+        <v>4.446544221053557</v>
       </c>
       <c r="C9">
-        <v>2.056131701144636</v>
+        <v>2.185756968358362</v>
       </c>
       <c r="D9">
-        <v>0.05910875179596786</v>
+        <v>0.08463705038631275</v>
       </c>
       <c r="E9">
-        <v>0.1740206183461979</v>
+        <v>0.1856442387987229</v>
       </c>
       <c r="F9">
-        <v>3.11892944765836</v>
+        <v>2.656099283525151</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.002420383713575003</v>
+        <v>0.002372999650922525</v>
       </c>
       <c r="I9">
-        <v>0.003739738311645979</v>
+        <v>0.003941839623593957</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.132132260137539</v>
+        <v>0.8582421888962415</v>
       </c>
       <c r="L9">
-        <v>0.3386108684874216</v>
+        <v>0.3608719783337548</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2949388193908433</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3290357511165638</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.787077618285533</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7014479714121205</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.862996351349409</v>
+        <v>5.230801646668851</v>
       </c>
       <c r="C10">
-        <v>2.434212734062726</v>
+        <v>2.588889617200209</v>
       </c>
       <c r="D10">
-        <v>0.06817806655978131</v>
+        <v>0.09802729764826523</v>
       </c>
       <c r="E10">
-        <v>0.1984683155186815</v>
+        <v>0.2111864098113614</v>
       </c>
       <c r="F10">
-        <v>3.532097404569839</v>
+        <v>2.981092174696528</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.007659840110244343</v>
+        <v>0.007100799114963419</v>
       </c>
       <c r="I10">
-        <v>0.009484740622751175</v>
+        <v>0.008856976975216924</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.249123944255956</v>
+        <v>0.9280230544495964</v>
       </c>
       <c r="L10">
-        <v>0.3849650271747578</v>
+        <v>0.3676761494899523</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3449080866837946</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3719640210783268</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7279262199961174</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6440948090330827</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.947836104823011</v>
+        <v>5.3260658487456</v>
       </c>
       <c r="C11">
-        <v>2.407117858200877</v>
+        <v>2.556369743296443</v>
       </c>
       <c r="D11">
-        <v>0.05532319605337932</v>
+        <v>0.08081750336739901</v>
       </c>
       <c r="E11">
-        <v>0.1443687208643674</v>
+        <v>0.1543382752060829</v>
       </c>
       <c r="F11">
-        <v>3.267378756391963</v>
+        <v>2.752101073429913</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02643156138719505</v>
+        <v>0.02579668471828356</v>
       </c>
       <c r="I11">
-        <v>0.01145898516961008</v>
+        <v>0.01070097960883665</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.144946745376799</v>
+        <v>0.847111705005517</v>
       </c>
       <c r="L11">
-        <v>0.2709713018111586</v>
+        <v>0.33054567042538</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3230026450749293</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2601899414757796</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6629508026903181</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6183201795851136</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.839057079573138</v>
+        <v>5.249472001885522</v>
       </c>
       <c r="C12">
-        <v>2.300729468908571</v>
+        <v>2.440273349981737</v>
       </c>
       <c r="D12">
-        <v>0.04387445985962302</v>
+        <v>0.06492824472070424</v>
       </c>
       <c r="E12">
-        <v>0.1027691821908086</v>
+        <v>0.1103336532582411</v>
       </c>
       <c r="F12">
-        <v>2.976285961790182</v>
+        <v>2.506963904337056</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06440105999683254</v>
+        <v>0.06382941801905417</v>
       </c>
       <c r="I12">
-        <v>0.0113457681182485</v>
+        <v>0.01063744812724909</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.042457382151767</v>
+        <v>0.7720239795531754</v>
       </c>
       <c r="L12">
-        <v>0.1862678628528371</v>
+        <v>0.3012638385635427</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2962863558405928</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1778977307582608</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.634023000280008</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.6180850065538479</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.563153733555225</v>
+        <v>5.025473420740525</v>
       </c>
       <c r="C13">
-        <v>2.131218949842037</v>
+        <v>2.257150423467181</v>
       </c>
       <c r="D13">
-        <v>0.03339756178640485</v>
+        <v>0.04986798671475157</v>
       </c>
       <c r="E13">
-        <v>0.06887847850950202</v>
+        <v>0.07418854291995558</v>
       </c>
       <c r="F13">
-        <v>2.638615373833119</v>
+        <v>2.22658344337168</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.118733527277314</v>
+        <v>0.1183235448258984</v>
       </c>
       <c r="I13">
-        <v>0.009911286392942031</v>
+        <v>0.009467189131287412</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.9289770371825483</v>
+        <v>0.691709020122758</v>
       </c>
       <c r="L13">
-        <v>0.1195191191081548</v>
+        <v>0.2737514027298644</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2627095986789811</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1137481563037497</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.627847665319706</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.635271306672653</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.294035522319291</v>
+        <v>4.801220272343812</v>
       </c>
       <c r="C14">
-        <v>1.986170348331825</v>
+        <v>2.100893079230957</v>
       </c>
       <c r="D14">
-        <v>0.02687046251740099</v>
+        <v>0.04018044114399544</v>
       </c>
       <c r="E14">
-        <v>0.0501717747729149</v>
+        <v>0.05401162432236006</v>
       </c>
       <c r="F14">
-        <v>2.383332245078947</v>
+        <v>2.015823317933609</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1669001242094765</v>
+        <v>0.1666258729780594</v>
       </c>
       <c r="I14">
-        <v>0.00850652348449632</v>
+        <v>0.008325134950352364</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.8448246506017156</v>
+        <v>0.6330735695084257</v>
       </c>
       <c r="L14">
-        <v>0.08420355409436908</v>
+        <v>0.2549691479499856</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2364230491841681</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08024373216639447</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6348958875863335</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.6558866632453899</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.19081960214362</v>
+        <v>4.713231927754919</v>
       </c>
       <c r="C15">
-        <v>1.93851594693848</v>
+        <v>2.049669097037452</v>
       </c>
       <c r="D15">
-        <v>0.02532346389660844</v>
+        <v>0.03784041988949483</v>
       </c>
       <c r="E15">
-        <v>0.04610289220532593</v>
+        <v>0.04960608383268017</v>
       </c>
       <c r="F15">
-        <v>2.308551236314386</v>
+        <v>1.954590353356565</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.178950234130582</v>
+        <v>0.1787247549800384</v>
       </c>
       <c r="I15">
-        <v>0.008026043357185486</v>
+        <v>0.007963965428054998</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.820414693191637</v>
+        <v>0.6163873276113065</v>
       </c>
       <c r="L15">
-        <v>0.07679083030306089</v>
+        <v>0.2501315710583327</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.228239815789955</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07331821554443607</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6399533306818306</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.663620719591087</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.863018897888594</v>
+        <v>4.422975585655763</v>
       </c>
       <c r="C16">
-        <v>1.816118479879322</v>
+        <v>1.919546174693949</v>
       </c>
       <c r="D16">
-        <v>0.02397883084725905</v>
+        <v>0.03592537369335247</v>
       </c>
       <c r="E16">
-        <v>0.04395881877551489</v>
+        <v>0.04755717771457846</v>
       </c>
       <c r="F16">
-        <v>2.204667580667135</v>
+        <v>1.874571729960735</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1644210214693658</v>
+        <v>0.164347121036073</v>
       </c>
       <c r="I16">
-        <v>0.005956189021425473</v>
+        <v>0.006222841390295386</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.7933473554407442</v>
+        <v>0.6017937546850618</v>
       </c>
       <c r="L16">
-        <v>0.07343795812503018</v>
+        <v>0.2506951455868105</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2145700616979624</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07055344948105002</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.663890891793427</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.6807753970611934</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.753284508741444</v>
+        <v>4.318570780812138</v>
       </c>
       <c r="C17">
-        <v>1.798601352956553</v>
+        <v>1.901996429242104</v>
       </c>
       <c r="D17">
-        <v>0.02623071699384738</v>
+        <v>0.03932658495195795</v>
       </c>
       <c r="E17">
-        <v>0.05116783636163369</v>
+        <v>0.0555812356743175</v>
       </c>
       <c r="F17">
-        <v>2.257834670283259</v>
+        <v>1.923189746929111</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1258970764346117</v>
+        <v>0.1258693569411093</v>
       </c>
       <c r="I17">
-        <v>0.005140553759486188</v>
+        <v>0.005524293809038738</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.8163275987561818</v>
+        <v>0.6212316926237094</v>
       </c>
       <c r="L17">
-        <v>0.087183604638291</v>
+        <v>0.2612938667337943</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2175626201218677</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.08388024753354628</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6779278773581243</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.6830461582487395</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.8241108647739</v>
+        <v>4.367189175210285</v>
       </c>
       <c r="C18">
-        <v>1.868012474989655</v>
+        <v>1.978126381263507</v>
       </c>
       <c r="D18">
-        <v>0.03258446059903264</v>
+        <v>0.04853920101669473</v>
       </c>
       <c r="E18">
-        <v>0.07188343531005259</v>
+        <v>0.07791289517576061</v>
       </c>
       <c r="F18">
-        <v>2.462533613764336</v>
+        <v>2.096927960703084</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07306025482863987</v>
+        <v>0.07302724939701477</v>
       </c>
       <c r="I18">
-        <v>0.004849809616573886</v>
+        <v>0.005186175882426092</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.8900235919189257</v>
+        <v>0.676111939022995</v>
       </c>
       <c r="L18">
-        <v>0.1276934110105969</v>
+        <v>0.2835337146658929</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2362550828928676</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1229760378921441</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6905618719806282</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.67636132546345</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.021128010655957</v>
+        <v>4.522565842429231</v>
       </c>
       <c r="C19">
-        <v>2.008105213420606</v>
+        <v>2.129996578470752</v>
       </c>
       <c r="D19">
-        <v>0.04362487618406163</v>
+        <v>0.06395553944466315</v>
       </c>
       <c r="E19">
-        <v>0.1093802498193988</v>
+        <v>0.1176980598038462</v>
       </c>
       <c r="F19">
-        <v>2.773486427733161</v>
+        <v>2.357564512422684</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0285622775849248</v>
+        <v>0.02847793386398934</v>
       </c>
       <c r="I19">
-        <v>0.005494033488953498</v>
+        <v>0.005766169404051169</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.9962602219791989</v>
+        <v>0.752838416787931</v>
       </c>
       <c r="L19">
-        <v>0.2027003959797327</v>
+        <v>0.312564241649639</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2651250696374348</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1956934421611152</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7084028756211005</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.6695684132966289</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.598502424141429</v>
+        <v>5.000337978312643</v>
       </c>
       <c r="C20">
-        <v>2.339166393730977</v>
+        <v>2.486976868820705</v>
       </c>
       <c r="D20">
-        <v>0.06670574513604066</v>
+        <v>0.09552994788516145</v>
       </c>
       <c r="E20">
-        <v>0.1920719923857703</v>
+        <v>0.2044897632503577</v>
       </c>
       <c r="F20">
-        <v>3.397690201222474</v>
+        <v>2.873812762923706</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.005949646176051981</v>
+        <v>0.005571794320243573</v>
       </c>
       <c r="I20">
-        <v>0.008321281724752438</v>
+        <v>0.00815010830665841</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>1.203787975305104</v>
+        <v>0.898266440451053</v>
       </c>
       <c r="L20">
-        <v>0.3713514529192992</v>
+        <v>0.3618571896554741</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3269925860997205</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3593574168000941</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7385627896534004</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6575990605397151</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.352400504889658</v>
+        <v>5.652129217083484</v>
       </c>
       <c r="C21">
-        <v>2.66886034075344</v>
+        <v>2.838958377639301</v>
       </c>
       <c r="D21">
-        <v>0.07703336657564819</v>
+        <v>0.1103430565470234</v>
       </c>
       <c r="E21">
-        <v>0.2240457147199777</v>
+        <v>0.2378382814657272</v>
       </c>
       <c r="F21">
-        <v>3.804493941094364</v>
+        <v>3.197269175250995</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.01158742373800603</v>
+        <v>0.01056579747538769</v>
       </c>
       <c r="I21">
-        <v>0.0142184498418283</v>
+        <v>0.01298771915798991</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.325380460006798</v>
+        <v>0.9744779112013831</v>
       </c>
       <c r="L21">
-        <v>0.4344749442680751</v>
+        <v>0.3746912417591659</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3758491120615446</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4189779720357762</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7033267636694873</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.616527771114727</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.841060188171753</v>
+        <v>6.074573967416484</v>
       </c>
       <c r="C22">
-        <v>2.872971840289551</v>
+        <v>3.056725560227392</v>
       </c>
       <c r="D22">
-        <v>0.08236290082233921</v>
+        <v>0.1181813945824643</v>
       </c>
       <c r="E22">
-        <v>0.2407912480045695</v>
+        <v>0.2552508299657319</v>
       </c>
       <c r="F22">
-        <v>4.057142066788998</v>
+        <v>3.397285237351724</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01611713841787443</v>
+        <v>0.01454128132923205</v>
       </c>
       <c r="I22">
-        <v>0.01866508833462088</v>
+        <v>0.01645157645281969</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.402656552657788</v>
+        <v>1.022905743222978</v>
       </c>
       <c r="L22">
-        <v>0.4676866753933524</v>
+        <v>0.3820238972475778</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4083369737930838</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.44997067152147</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.680049805846707</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.5903389934764229</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.590079318659321</v>
+        <v>5.857859140851758</v>
       </c>
       <c r="C23">
-        <v>2.761444461990436</v>
+        <v>2.937988371727556</v>
       </c>
       <c r="D23">
-        <v>0.07910350713455472</v>
+        <v>0.1135250843169473</v>
       </c>
       <c r="E23">
-        <v>0.2316588903527474</v>
+        <v>0.2457695302514935</v>
       </c>
       <c r="F23">
-        <v>3.930727481661165</v>
+        <v>3.297761795738921</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01363798188256182</v>
+        <v>0.01236767790684828</v>
       </c>
       <c r="I23">
-        <v>0.01598319869297793</v>
+        <v>0.01424590789980762</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.366502475442431</v>
+        <v>1.001087424167608</v>
       </c>
       <c r="L23">
-        <v>0.4501588158738912</v>
+        <v>0.379564996344449</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.392533242570984</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.433613736898991</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6941036214043841</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6046816684840899</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.629677032454651</v>
+        <v>5.025715504127675</v>
       </c>
       <c r="C24">
-        <v>2.348918056668197</v>
+        <v>2.498013325519537</v>
       </c>
       <c r="D24">
-        <v>0.06766405339818959</v>
+        <v>0.0969240842843746</v>
       </c>
       <c r="E24">
-        <v>0.197904161164665</v>
+        <v>0.2106053802098415</v>
       </c>
       <c r="F24">
-        <v>3.445368583701281</v>
+        <v>2.914043370063382</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006025330799218076</v>
+        <v>0.005631727474406989</v>
       </c>
       <c r="I24">
-        <v>0.007983237637480656</v>
+        <v>0.007693108825994166</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>1.223746334202261</v>
+        <v>0.9133011803911302</v>
       </c>
       <c r="L24">
-        <v>0.3843772923724913</v>
+        <v>0.3675650726219715</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3326117169565563</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3720554808538168</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7459288834873803</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6597375674147798</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.605001105118333</v>
+        <v>4.132947686905766</v>
       </c>
       <c r="C25">
-        <v>1.914384172683356</v>
+        <v>2.033981875626523</v>
       </c>
       <c r="D25">
-        <v>0.05573681330077562</v>
+        <v>0.07950575928447989</v>
       </c>
       <c r="E25">
-        <v>0.1624255233019731</v>
+        <v>0.1734711366397619</v>
       </c>
       <c r="F25">
-        <v>2.935551164019586</v>
+        <v>2.509611822476273</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.001171739047371556</v>
+        <v>0.001213587413753769</v>
       </c>
       <c r="I25">
-        <v>0.002701647469089075</v>
+        <v>0.00313414489895969</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.074586945209276</v>
+        <v>0.8213091009645339</v>
       </c>
       <c r="L25">
-        <v>0.3151003598029121</v>
+        <v>0.3537660984016995</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2732058191936346</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3068962975786462</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.804368317333509</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7218064178434869</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
